--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
   <si>
     <t>需求箱中选择了筛选国家之后，没有按条件显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,195 +204,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://github.com/auhig/bag-bug/issues/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑选买手页面中没有显示买手购买国家或城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑买手接单说明页需要改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在订单中填写的地址信息没有保存到用户信息中，每次都要重新填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从我也要买复制出来的订单，在进行编辑时，图片没显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家在购买完成时，不允许输入超过“建议价格”的值  enhancement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私信内容需改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面目前是测试版，需要换成正式版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家完成交易后，看不到对应的交易金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功后直接登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页中，选择搜索，弹出框出现会有抖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车内的和发布确认的订单，可以点击详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单支付详细中存在两个总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单支付后，缺少单位“元”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买时长，显示不正确，页面位置不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始地点、结束地点未获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建订单时，预想价格没有单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次填写后，如果默认地址为空，则保存为默认地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面风格不一致，主要功能，BUG的重要度均为“高”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据订单状态，显示“期待价格”、“建议价格”、“成交价格”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用文字提醒用户到“购物车”中新建订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能看到自己发布的订单，但不能接单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际价格未填写时，不允许完成购买完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买完成时间 - 购买开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义具体文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jihua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>买家取消订单时，系统没有告知会扣除一定比例的佣金给买手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑选买手页面中没有显示买手购买国家或城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑买手接单说明页需要改善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在订单中填写的地址信息没有保存到用户信息中，每次都要重新填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从我也要买复制出来的订单，在进行编辑时，图片没显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家在购买完成时，不允许输入超过“建议价格”的值  enhancement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>私信内容需改善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面目前是测试版，需要换成正式版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家完成交易后，看不到对应的交易金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册成功后直接登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页中，选择搜索，弹出框出现会有抖动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车内的和发布确认的订单，可以点击详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单支付详细中存在两个总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单支付后，缺少单位“元”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买时长，显示不正确，页面位置不对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始地点、结束地点未获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建订单时，预想价格没有单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂不对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次填写后，如果默认地址为空，则保存为默认地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面风格不一致，主要功能，BUG的重要度均为“高”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依据订单状态，显示“期待价格”、“建议价格”、“成交价格”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用文字提醒用户到“购物车”中新建订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能看到自己发布的订单，但不能接单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际价格未填写时，不允许完成购买完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买完成时间 - 购买开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义具体文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jihua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,8 +822,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -838,21 +838,21 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -860,13 +860,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -874,16 +874,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -891,13 +891,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -905,13 +905,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -919,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -933,13 +933,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -947,13 +947,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -961,16 +961,16 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -978,25 +978,27 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
@@ -1008,7 +1010,7 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -1016,13 +1018,13 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -1030,16 +1032,16 @@
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
@@ -1051,7 +1053,7 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1074,7 +1076,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
@@ -1086,63 +1088,69 @@
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D22" t="s">
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D23" t="s">
         <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D24" t="s">
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
         <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
@@ -1154,7 +1162,7 @@
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
@@ -1166,7 +1174,7 @@
         <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
@@ -1175,209 +1183,209 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
         <v>78</v>
-      </c>
-      <c r="F31" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
-      </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
   <si>
     <t>需求箱中选择了筛选国家之后，没有按条件显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多个订单，不同的图片，在订单列表中却显示成一样的图  bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/auhig/bag-bug/issues/23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +389,14 @@
   </si>
   <si>
     <t>买家取消订单时，系统没有告知会扣除一定比例的佣金给买手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个订单，不同的图片，在订单列表中却显示成一样的图  bug/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法重现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,8 +826,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -838,21 +842,21 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -860,13 +864,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -874,16 +878,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -891,13 +895,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -905,13 +909,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -919,13 +923,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -933,13 +937,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -947,13 +951,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -961,16 +965,16 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -978,13 +982,13 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -992,13 +996,13 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
@@ -1010,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -1018,13 +1022,13 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -1032,16 +1036,16 @@
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
@@ -1053,14 +1057,16 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1076,316 +1082,327 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
         <v>77</v>
-      </c>
-      <c r="F31" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" t="s">
-        <v>61</v>
-      </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -827,7 +827,7 @@
   <dimension ref="B2:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1060,7 +1060,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>

--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
   <si>
     <t>需求箱中选择了筛选国家之后，没有按条件显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -827,7 +827,7 @@
   <dimension ref="B2:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,11 +1005,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
@@ -1164,11 +1166,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D26" t="s">
         <v>40</v>
       </c>

--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="158">
   <si>
     <t>需求箱中选择了筛选国家之后，没有按条件显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,11 +360,264 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>定义具体文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jihua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家取消订单时，系统没有告知会扣除一定比例的佣金给买手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个订单，不同的图片，在订单列表中却显示成一样的图  bug/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法重现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家和买手达成购买后，应该提示购买风险和协议。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际购买价格输入错误后，没有地方修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手应该可以上传多张商品图片和购物小票。且可以写一个备注说明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于商品特定的属性，目前没有显示出来，做一条能显示的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单选择地址画面和订单画面中显示超长地址，显示不完整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代购国家选择中，需要提供全球所有国家，同时可以买家选择不限制国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单内容显示没有显示全，超长没有折行显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单中，重要的标题说明，应该有个地方显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在【我的】里加入【常用代购品】，让买家在发布商品后，选择是否放入常用代购品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格和金额相关单位都要标注人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手接单无法看到哪些订单是同一个买家的，如果不提供这样的方式，会照成买手不容易接单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【需求箱】改个名字，【订单】移到【我的】里面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面不要用下拉菜单表示。host 隐藏起来，记住密码用开关形式比较好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手取消购买，不能提交取消理由，以及取消后的风险提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手取消购买，之前所有的状态消失了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车中的订单，点击后无法进行编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册的时候，昵称不需要，增加了用户操作复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建购物需求时，选择子分类时，初始显示不正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态改变没有提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认图片更换，头像、订单商品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>购买完成时间 - 购买开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定义具体文字</t>
+    <t>暂不对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改为“最晚邮寄时间”，并进行说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出确认框，提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注暂不对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求商品订单中加入评论功能，帮助买家完善需求信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代购期限意义不明确，填写难度大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金填写和显示应该包含指定金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现功能</t>
+  </si>
+  <si>
+    <t>我的账本界面调整</t>
+  </si>
+  <si>
+    <t>cancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -372,7 +625,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cancel</t>
+    <t>jihua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -380,23 +633,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jihua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家取消订单时，系统没有告知会扣除一定比例的佣金给买手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个订单，不同的图片，在订单列表中却显示成一样的图  bug/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法重现</t>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布确认的不可点击，购物车里的可以点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不支持字母索引，不允许可以买家选择不限制国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清单明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,12 +738,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -520,9 +793,63 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -823,18 +1150,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:F45"/>
+  <dimension ref="B2:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="49.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.875" bestFit="1" customWidth="1"/>
@@ -849,6 +1175,7 @@
       <c r="B4" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="4" t="s">
         <v>70</v>
       </c>
@@ -859,12 +1186,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>87</v>
+      <c r="C5" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -873,12 +1200,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>88</v>
+      <c r="C6" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -890,12 +1217,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>88</v>
+      <c r="C7" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -904,12 +1231,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>89</v>
+      <c r="C8" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -918,12 +1245,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>90</v>
+      <c r="C9" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -932,12 +1259,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>90</v>
+      <c r="C10" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -946,12 +1273,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>90</v>
+      <c r="C11" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -960,12 +1287,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>90</v>
+      <c r="C12" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -977,12 +1304,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>90</v>
+      <c r="C13" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -991,12 +1318,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>90</v>
+      <c r="C14" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1005,12 +1332,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>90</v>
+      <c r="C15" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1019,12 +1346,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>90</v>
+      <c r="C16" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1033,12 +1360,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>88</v>
+      <c r="C17" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
@@ -1047,14 +1374,14 @@
         <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="8"/>
       <c r="D18" t="s">
         <v>27</v>
       </c>
@@ -1062,12 +1389,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>88</v>
+      <c r="C19" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>28</v>
@@ -1079,7 +1406,7 @@
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="8"/>
       <c r="D20" t="s">
         <v>30</v>
       </c>
@@ -1087,29 +1414,29 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>88</v>
+      <c r="C21" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
         <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>90</v>
+      <c r="C22" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -1118,12 +1445,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>88</v>
+      <c r="C23" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
@@ -1135,12 +1462,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>90</v>
+      <c r="C24" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -1152,12 +1479,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>88</v>
+      <c r="C25" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -1166,12 +1493,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>90</v>
+      <c r="C26" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
@@ -1184,7 +1511,7 @@
       <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="8"/>
       <c r="D27" t="s">
         <v>42</v>
       </c>
@@ -1192,26 +1519,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>88</v>
+      <c r="C28" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>88</v>
+      <c r="C29" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -1224,7 +1551,7 @@
       <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="8"/>
       <c r="D30" t="s">
         <v>47</v>
       </c>
@@ -1232,12 +1559,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>88</v>
+      <c r="C31" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>49</v>
@@ -1253,7 +1580,9 @@
       <c r="B32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="D32" t="s">
         <v>52</v>
       </c>
@@ -1265,7 +1594,7 @@
       <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="8"/>
       <c r="D33" t="s">
         <v>53</v>
       </c>
@@ -1280,7 +1609,9 @@
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="D34" t="s">
         <v>55</v>
       </c>
@@ -1288,12 +1619,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>88</v>
+      <c r="C35" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D35" t="s">
         <v>57</v>
@@ -1302,12 +1633,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>91</v>
+      <c r="C36" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="D36" t="s">
         <v>60</v>
@@ -1316,112 +1647,494 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" t="s">
+    <row r="37" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="11"/>
+      <c r="C37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D38" t="s">
+    <row r="38" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="11"/>
+      <c r="C38" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="39" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="11"/>
+      <c r="C39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="40" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="11"/>
+      <c r="C40" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="F40" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="11"/>
+      <c r="C41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="42" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="11"/>
+      <c r="C42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
+    <row r="43" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="11"/>
+      <c r="C43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D44" t="s">
+      <c r="F43" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="11"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D45" t="s">
+    <row r="45" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="11"/>
+      <c r="C45" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="10" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="46" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="11"/>
+      <c r="C46" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="11"/>
+      <c r="C47" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="11"/>
+      <c r="C70" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="11"/>
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="11"/>
+      <c r="C72" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B4:F45">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B4:F45"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B5:D100">
-    <cfRule type="expression" dxfId="2" priority="2">
+  <conditionalFormatting sqref="B5:D36 B51:D100">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$C5="cancel"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$C5="done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C5="cancel"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:D50">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$C37="cancel"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$C37="done"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1457,9 +2170,31 @@
     <hyperlink ref="B34" r:id="rId30"/>
     <hyperlink ref="B35" r:id="rId31"/>
     <hyperlink ref="B36" r:id="rId32"/>
+    <hyperlink ref="B56" r:id="rId33"/>
+    <hyperlink ref="B57" r:id="rId34"/>
+    <hyperlink ref="B58" r:id="rId35"/>
+    <hyperlink ref="B59" r:id="rId36"/>
+    <hyperlink ref="B60" r:id="rId37"/>
+    <hyperlink ref="B61" r:id="rId38"/>
+    <hyperlink ref="B62" r:id="rId39"/>
+    <hyperlink ref="B63" r:id="rId40"/>
+    <hyperlink ref="B64" r:id="rId41"/>
+    <hyperlink ref="B65" r:id="rId42"/>
+    <hyperlink ref="B66" r:id="rId43"/>
+    <hyperlink ref="B67" r:id="rId44"/>
+    <hyperlink ref="B68" r:id="rId45"/>
+    <hyperlink ref="B69" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
 

--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$F$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$F$70</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="159">
   <si>
     <t>需求箱中选择了筛选国家之后，没有按条件显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,460 +192,467 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://github.com/auhig/bag-bug/issues/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑选买手页面中没有显示买手购买国家或城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑买手接单说明页需要改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在订单中填写的地址信息没有保存到用户信息中，每次都要重新填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从我也要买复制出来的订单，在进行编辑时，图片没显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家在购买完成时，不允许输入超过“建议价格”的值  enhancement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私信内容需改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面目前是测试版，需要换成正式版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家完成交易后，看不到对应的交易金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功后直接登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页中，选择搜索，弹出框出现会有抖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车内的和发布确认的订单，可以点击详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单支付详细中存在两个总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单支付后，缺少单位“元”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买时长，显示不正确，页面位置不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始地点、结束地点未获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建订单时，预想价格没有单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次填写后，如果默认地址为空，则保存为默认地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面风格不一致，主要功能，BUG的重要度均为“高”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据订单状态，显示“期待价格”、“建议价格”、“成交价格”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用文字提醒用户到“购物车”中新建订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能看到自己发布的订单，但不能接单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际价格未填写时，不允许完成购买完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义具体文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jihua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家取消订单时，系统没有告知会扣除一定比例的佣金给买手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个订单，不同的图片，在订单列表中却显示成一样的图  bug/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法重现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家和买手达成购买后，应该提示购买风险和协议。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际购买价格输入错误后，没有地方修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手应该可以上传多张商品图片和购物小票。且可以写一个备注说明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于商品特定的属性，目前没有显示出来，做一条能显示的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单选择地址画面和订单画面中显示超长地址，显示不完整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代购国家选择中，需要提供全球所有国家，同时可以买家选择不限制国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单内容显示没有显示全，超长没有折行显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单中，重要的标题说明，应该有个地方显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在【我的】里加入【常用代购品】，让买家在发布商品后，选择是否放入常用代购品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格和金额相关单位都要标注人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手接单无法看到哪些订单是同一个买家的，如果不提供这样的方式，会照成买手不容易接单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【需求箱】改个名字，【订单】移到【我的】里面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面不要用下拉菜单表示。host 隐藏起来，记住密码用开关形式比较好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手取消购买，不能提交取消理由，以及取消后的风险提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手取消购买，之前所有的状态消失了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车中的订单，点击后无法进行编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册的时候，昵称不需要，增加了用户操作复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建购物需求时，选择子分类时，初始显示不正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态改变没有提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认图片更换，头像、订单商品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买完成时间 - 购买开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改为“最晚邮寄时间”，并进行说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出确认框，提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注暂不对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求商品订单中加入评论功能，帮助买家完善需求信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代购期限意义不明确，填写难度大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金填写和显示应该包含指定金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现功能</t>
+  </si>
+  <si>
+    <t>我的账本界面调整</t>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jihua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布确认的不可点击，购物车里的可以点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不支持字母索引，不允许可以买家选择不限制国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清单明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/auhig/bag-bug/issues/15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/auhig/bag-bug/issues/14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑选买手页面中没有显示买手购买国家或城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑买手接单说明页需要改善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在订单中填写的地址信息没有保存到用户信息中，每次都要重新填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从我也要买复制出来的订单，在进行编辑时，图片没显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家在购买完成时，不允许输入超过“建议价格”的值  enhancement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>私信内容需改善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面目前是测试版，需要换成正式版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家完成交易后，看不到对应的交易金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册成功后直接登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页中，选择搜索，弹出框出现会有抖动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车内的和发布确认的订单，可以点击详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单支付详细中存在两个总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单支付后，缺少单位“元”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买时长，显示不正确，页面位置不对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始地点、结束地点未获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建订单时，预想价格没有单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂不对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次填写后，如果默认地址为空，则保存为默认地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面风格不一致，主要功能，BUG的重要度均为“高”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依据订单状态，显示“期待价格”、“建议价格”、“成交价格”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用文字提醒用户到“购物车”中新建订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能看到自己发布的订单，但不能接单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际价格未填写时，不允许完成购买完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义具体文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jihua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家取消订单时，系统没有告知会扣除一定比例的佣金给买手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个订单，不同的图片，在订单列表中却显示成一样的图  bug/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法重现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买家和买手达成购买后，应该提示购买风险和协议。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际购买价格输入错误后，没有地方修改。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买手应该可以上传多张商品图片和购物小票。且可以写一个备注说明。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于商品特定的属性，目前没有显示出来，做一条能显示的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单选择地址画面和订单画面中显示超长地址，显示不完整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代购国家选择中，需要提供全球所有国家，同时可以买家选择不限制国家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单内容显示没有显示全，超长没有折行显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单中，重要的标题说明，应该有个地方显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在【我的】里加入【常用代购品】，让买家在发布商品后，选择是否放入常用代购品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格和金额相关单位都要标注人民币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买手接单无法看到哪些订单是同一个买家的，如果不提供这样的方式，会照成买手不容易接单。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【需求箱】改个名字，【订单】移到【我的】里面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面不要用下拉菜单表示。host 隐藏起来，记住密码用开关形式比较好。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买手取消购买，不能提交取消理由，以及取消后的风险提示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买手取消购买，之前所有的状态消失了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车中的订单，点击后无法进行编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册的时候，昵称不需要，增加了用户操作复杂度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建购物需求时，选择子分类时，初始显示不正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态改变没有提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认图片更换，头像、订单商品图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买完成时间 - 购买开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂不对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改为“最晚邮寄时间”，并进行说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出确认框，提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注暂不对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求商品订单中加入评论功能，帮助买家完善需求信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代购期限意义不明确，填写难度大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/auhig/bag-bug/issues/59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佣金填写和显示应该包含指定金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现功能</t>
-  </si>
-  <si>
-    <t>我的账本界面调整</t>
-  </si>
-  <si>
-    <t>cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jihua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布确认的不可点击，购物车里的可以点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时不支持字母索引，不允许可以买家选择不限制国家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清单明细</t>
+    <t>给提示,背景已变黄，如果需要其他提示，可以自行添加
+ label.bigger-price{
+  background: yellow;
+ }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,63 +769,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1150,10 +1109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1168,67 +1128,67 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
@@ -1236,145 +1196,145 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
@@ -1386,15 +1346,15 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>28</v>
@@ -1411,7 +1371,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
@@ -1419,695 +1379,699 @@
         <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="D27" t="s">
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="54" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
+      <c r="D36" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>60</v>
-      </c>
       <c r="E36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" s="11"/>
       <c r="C37" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="11"/>
       <c r="C38" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="11"/>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="11"/>
       <c r="C40" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41" s="11"/>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42" s="11"/>
       <c r="C42" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="11"/>
       <c r="C43" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="11"/>
       <c r="C44" s="8"/>
       <c r="D44" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="11"/>
       <c r="C45" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="11"/>
       <c r="C46" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B47" s="11"/>
       <c r="C47" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B48" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="F49" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="10" t="s">
+    </row>
+    <row r="53" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="E53" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B56" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="11" t="s">
+      <c r="E59" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="10" t="s">
+      <c r="C60" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="11" t="s">
+      <c r="E60" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C61" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="D62" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="E62" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="C67" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="11" t="s">
+      <c r="E67" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="10" t="s">
+      <c r="C68" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="10" t="s">
+      <c r="E68" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="69" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="11"/>
       <c r="C70" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -2119,21 +2083,28 @@
       <c r="C72" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:F45"/>
+  <autoFilter ref="B4:F70">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="-"/>
+        <filter val="doing"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:D36 B51:D100">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$C5="cancel"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$C5="done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:D50">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C37="cancel"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C37="done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
   <si>
     <t>需求箱中选择了筛选国家之后，没有按条件显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +653,14 @@
  label.bigger-price{
   background: yellow;
  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,7 +1121,7 @@
   <dimension ref="B2:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1366,7 +1374,9 @@
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
@@ -1623,10 +1633,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="11"/>
       <c r="C38" s="8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>66</v>
@@ -1711,10 +1721,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="11"/>
       <c r="C45" s="8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>60</v>
@@ -1849,11 +1859,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B55" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="8"/>
+      <c r="C55" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="D55" s="10" t="s">
         <v>100</v>
       </c>
@@ -1875,11 +1887,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B57" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="8"/>
+      <c r="C57" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="D57" s="10" t="s">
         <v>102</v>
       </c>

--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="163">
   <si>
     <t>需求箱中选择了筛选国家之后，没有按条件显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,10 +381,6 @@
   </si>
   <si>
     <t>无法重现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,6 +657,18 @@
   </si>
   <si>
     <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,8 +1128,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1375,7 +1383,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -1384,12 +1392,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
         <v>89</v>
@@ -1479,10 +1487,10 @@
     </row>
     <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
@@ -1519,11 +1527,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="D30" t="s">
         <v>46</v>
       </c>
@@ -1553,7 +1563,7 @@
         <v>50</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
@@ -1567,7 +1577,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -1576,7 +1586,7 @@
         <v>75</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -1584,7 +1594,7 @@
         <v>55</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
@@ -1636,7 +1646,7 @@
     <row r="38" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="11"/>
       <c r="C38" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>66</v>
@@ -1669,7 +1679,7 @@
         <v>71</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
@@ -1699,7 +1709,7 @@
     <row r="43" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="11"/>
       <c r="C43" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>62</v>
@@ -1708,7 +1718,7 @@
         <v>75</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1724,7 +1734,7 @@
     <row r="45" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="11"/>
       <c r="C45" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>60</v>
@@ -1736,68 +1746,70 @@
     <row r="46" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="11"/>
       <c r="C46" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B47" s="11"/>
       <c r="C47" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B48" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>71</v>
@@ -1805,287 +1817,287 @@
     </row>
     <row r="51" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B53" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="54" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B54" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B55" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B56" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B57" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B59" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B60" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B61" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B62" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B66" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="11"/>
       <c r="C70" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">

--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>需求箱中选择了筛选国家之后，没有按条件显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,10 +653,6 @@
   </si>
   <si>
     <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1129,7 +1125,7 @@
   <dimension ref="B2:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1378,7 +1374,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1397,7 +1393,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
         <v>89</v>
@@ -1532,7 +1528,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -1743,10 +1739,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="11"/>
       <c r="C46" s="8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>145</v>
@@ -1806,7 +1802,7 @@
         <v>143</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>144</v>

--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -621,10 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>doing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发布确认的不可点击，购物车里的可以点击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,6 +657,10 @@
   </si>
   <si>
     <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1125,7 +1125,7 @@
   <dimension ref="B2:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1379,7 +1379,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -1393,7 +1393,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
         <v>89</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
@@ -1528,7 +1528,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -1573,7 +1573,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -1582,7 +1582,7 @@
         <v>75</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -1642,7 +1642,7 @@
     <row r="38" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="11"/>
       <c r="C38" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>66</v>
@@ -1714,7 +1714,7 @@
         <v>75</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1730,7 +1730,7 @@
     <row r="45" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="11"/>
       <c r="C45" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>60</v>
@@ -1742,7 +1742,7 @@
     <row r="46" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="11"/>
       <c r="C46" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>145</v>
@@ -1802,7 +1802,7 @@
         <v>143</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>144</v>
@@ -1872,7 +1872,7 @@
         <v>124</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>99</v>
@@ -1892,7 +1892,7 @@
         <v>94</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
@@ -1900,7 +1900,7 @@
         <v>126</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>101</v>
@@ -1909,7 +1909,7 @@
         <v>94</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
@@ -2013,12 +2013,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B65" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>109</v>
@@ -2109,7 +2109,6 @@
     <filterColumn colId="1">
       <filters blank="1">
         <filter val="-"/>
-        <filter val="doing"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="199">
   <si>
     <t>需求箱中选择了筛选国家之后，没有按条件显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,10 +472,6 @@
   </si>
   <si>
     <t>订单状态改变没有提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认图片更换，头像、订单商品图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,6 +657,157 @@
   </si>
   <si>
     <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接不上服务器时，给出提示（暂时无法连接服务器）</t>
+  </si>
+  <si>
+    <t>之前的设计，具体修改方案需要再讨论，本期暂不对应</t>
+  </si>
+  <si>
+    <t>jihua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认图片更换，头像、订单商品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器维护期间应该给予页面提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付金额超限，支付失败退出支付后，系统仍然认为成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手购买完成后，添加错照片后无法移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一批订单包含多个商品，买手接单和买家付款要多次操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息推送，订单状态变化时需要给买家或者买手推送提醒  bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为买手支付后，仍然进入了买手支付画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大图页面标题应该使用所对应的商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gif图片无法上传为商品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买家付款后，无法取消订单  bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手接单购买过程中，拍照图片等需要在购买完成前保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建订单发布时，没有输入地址也能进行发布  bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/auhig/bag-bug/issues/73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手购买完成后，无法操作完成购买  bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前后台不管状况如何，都成功的。其他部分测试完成后，可真正测试此部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示框，完成购买后不允许修改照片，因为此时买家可能已经查看了该图片
+同一个画面已经有弹出框了，需要如何改请直接改吧 controllers.js 1435行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新订单一览会有小红点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,7 +854,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +864,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,12 +937,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1121,11 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:F72"/>
+  <dimension ref="B2:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1158,7 +1333,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1172,7 +1347,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +1364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1217,7 +1392,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +1406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,7 +1420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1259,7 +1434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1276,7 +1451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1290,7 +1465,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1304,7 +1479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1318,7 +1493,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,7 +1507,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1353,7 +1528,9 @@
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
@@ -1361,7 +1538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1374,12 +1551,12 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -1388,12 +1565,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s">
         <v>89</v>
@@ -1405,7 +1582,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1419,7 +1596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1436,7 +1613,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1453,7 +1630,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
@@ -1467,7 +1644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1481,12 +1658,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
@@ -1495,7 +1672,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
@@ -1509,7 +1686,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1523,12 +1700,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -1537,7 +1714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1554,12 +1731,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
@@ -1568,12 +1745,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -1582,15 +1759,15 @@
         <v>75</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
@@ -1599,7 +1776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
@@ -1613,7 +1790,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
@@ -1627,7 +1804,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="11"/>
       <c r="C37" s="8" t="s">
         <v>84</v>
@@ -1639,10 +1816,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="11"/>
       <c r="C38" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>66</v>
@@ -1651,7 +1828,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="11"/>
       <c r="C39" s="8" t="s">
         <v>84</v>
@@ -1663,7 +1840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="11"/>
       <c r="C40" s="8" t="s">
         <v>84</v>
@@ -1675,10 +1852,10 @@
         <v>71</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="11"/>
       <c r="C41" s="8" t="s">
         <v>84</v>
@@ -1690,7 +1867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="11"/>
       <c r="C42" s="8" t="s">
         <v>84</v>
@@ -1702,10 +1879,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="11"/>
       <c r="C43" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>62</v>
@@ -1714,7 +1891,7 @@
         <v>75</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1727,10 +1904,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="11"/>
       <c r="C45" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>60</v>
@@ -1739,95 +1916,95 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="11"/>
       <c r="C46" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="11"/>
       <c r="C47" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>96</v>
@@ -1836,15 +2013,15 @@
         <v>94</v>
       </c>
       <c r="F52" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="C53" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>97</v>
@@ -1853,37 +2030,37 @@
         <v>93</v>
       </c>
       <c r="F53" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="C54" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>100</v>
@@ -1892,15 +2069,15 @@
         <v>94</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>101</v>
@@ -1909,15 +2086,15 @@
         <v>94</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>102</v>
@@ -1926,12 +2103,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>103</v>
@@ -1940,15 +2117,15 @@
         <v>92</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>104</v>
@@ -1957,12 +2134,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>105</v>
@@ -1971,12 +2148,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>106</v>
@@ -1987,10 +2164,10 @@
     </row>
     <row r="63" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>107</v>
@@ -1999,12 +2176,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>108</v>
@@ -2013,12 +2190,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>109</v>
@@ -2027,12 +2204,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>110</v>
@@ -2041,12 +2218,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>111</v>
@@ -2055,15 +2232,15 @@
         <v>92</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>112</v>
@@ -2074,9 +2251,11 @@
     </row>
     <row r="69" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="8"/>
+        <v>137</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="D69" s="10" t="s">
         <v>113</v>
       </c>
@@ -2084,48 +2263,208 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="11"/>
       <c r="C70" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="11"/>
+        <v>164</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="11"/>
-      <c r="C72" s="8"/>
+      <c r="D71" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" s="13" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="B73" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:F70">
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="-"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B4:F70"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:D36 B51:D100">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$C5="cancel"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$C5="done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:D50">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$C37="cancel"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$C37="done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$F$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$F$82</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="198">
   <si>
     <t>需求箱中选择了筛选国家之后，没有按条件显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,10 +361,6 @@
   </si>
   <si>
     <t>cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -948,24 +944,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1297,10 +1276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1333,7 +1313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1378,12 +1358,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -1392,7 +1372,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1406,7 +1386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1420,7 +1400,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1434,7 +1414,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1451,7 +1431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1465,7 +1445,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1479,7 +1459,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1493,7 +1473,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1507,7 +1487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,12 +1504,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1538,7 +1518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1551,12 +1531,12 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -1565,24 +1545,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1596,7 +1576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1613,7 +1593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1630,7 +1610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
@@ -1644,7 +1624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1658,12 +1638,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
@@ -1672,7 +1652,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
@@ -1680,13 +1660,13 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1700,12 +1680,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -1714,7 +1694,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1731,12 +1711,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
@@ -1745,12 +1725,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -1759,15 +1739,15 @@
         <v>75</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
@@ -1776,7 +1756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
@@ -1790,12 +1770,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>59</v>
@@ -1804,7 +1784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" s="11"/>
       <c r="C37" s="8" t="s">
         <v>84</v>
@@ -1816,10 +1796,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="11"/>
       <c r="C38" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>66</v>
@@ -1828,7 +1808,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="11"/>
       <c r="C39" s="8" t="s">
         <v>84</v>
@@ -1840,7 +1820,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="11"/>
       <c r="C40" s="8" t="s">
         <v>84</v>
@@ -1852,10 +1832,10 @@
         <v>71</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41" s="11"/>
       <c r="C41" s="8" t="s">
         <v>84</v>
@@ -1867,7 +1847,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42" s="11"/>
       <c r="C42" s="8" t="s">
         <v>84</v>
@@ -1879,10 +1859,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="11"/>
       <c r="C43" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>62</v>
@@ -1891,7 +1871,7 @@
         <v>75</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1904,10 +1884,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="11"/>
       <c r="C45" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>60</v>
@@ -1916,555 +1896,567 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="11"/>
       <c r="C46" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B47" s="11"/>
       <c r="C47" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="11" t="s">
+      <c r="E52" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="8" t="s">
+    </row>
+    <row r="53" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="D58" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="D61" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="10" t="s">
+      <c r="D62" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="63" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="C64" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="11" t="s">
+      <c r="E64" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="10" t="s">
+      <c r="C65" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="11" t="s">
+      <c r="E65" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" s="10" t="s">
+      <c r="D69" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="E69" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="11"/>
       <c r="C70" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="E70" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="13" t="s">
+    </row>
+    <row r="71" spans="2:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="11" t="s">
+      <c r="C71" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="13" t="s">
+      <c r="E71" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="F71" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="C72" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" s="13" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D72" s="13" t="s">
+    <row r="75" spans="2:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E72" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" s="13" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="B73" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F73" s="16" t="s">
+      <c r="F75" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D75" s="13" t="s">
+    <row r="76" spans="2:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F75" s="13" t="s">
+      <c r="C76" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="11" t="s">
+      <c r="D76" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="13" t="s">
+      <c r="E76" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E76" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="11" t="s">
+      <c r="C77" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="13" t="s">
+      <c r="E77" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E77" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="11" t="s">
+      <c r="C78" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="13" t="s">
+      <c r="E78" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="11" t="s">
+      <c r="C79" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D79" s="13" t="s">
+      <c r="E79" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E79" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="11" t="s">
+      <c r="C80" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" s="13" t="s">
+    </row>
+    <row r="81" spans="2:5" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="11" t="s">
+      <c r="C81" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D81" s="13" t="s">
+      <c r="E81" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E81" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="11" t="s">
+      <c r="C82" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>193</v>
-      </c>
       <c r="E82" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:F70"/>
+  <autoFilter ref="B4:F82">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="-"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:D36 B51:D100">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$C5="cancel"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$C5="done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:D50">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C37="cancel"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C37="done"</formula>
     </cfRule>
   </conditionalFormatting>
